--- a/src/main/resources/database/接口设计.xlsx
+++ b/src/main/resources/database/接口设计.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majia\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lanjing/Documents/workspace/mining/src/main/resources/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="注册接口" sheetId="2" r:id="rId2"/>
     <sheet name="登陆接口" sheetId="3" r:id="rId3"/>
-    <sheet name="挖矿请求接口" sheetId="4" r:id="rId4"/>
-    <sheet name="挖矿计算请求接口" sheetId="5" r:id="rId5"/>
-    <sheet name="查询挖矿排名接口 " sheetId="6" r:id="rId6"/>
+    <sheet name="挖矿计算请求接口" sheetId="5" r:id="rId4"/>
+    <sheet name="查询挖矿排名接口 " sheetId="6" r:id="rId5"/>
+    <sheet name="挖矿请求接口" sheetId="4" r:id="rId6"/>
+    <sheet name="获取用户挖矿记录接口" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="114">
   <si>
     <t>表格 1</t>
   </si>
@@ -468,12 +477,131 @@
     <t>AES</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿记录列表</t>
+    <rPh sb="0" eb="1">
+      <t>wa kuang ji l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lie biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖矿记录</t>
+    <rPh sb="0" eb="1">
+      <t>wa kuang ji l</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalTime</t>
+  </si>
+  <si>
+    <t>totalMiles</t>
+  </si>
+  <si>
+    <t>totalMoney</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次挖矿开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>ben ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa kuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次挖矿结束时间</t>
+    <rPh sb="0" eb="1">
+      <t>ben ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa kuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次挖矿总时间</t>
+    <rPh sb="0" eb="1">
+      <t>ben ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa kuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong shi jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次挖矿总里程</t>
+    <rPh sb="0" eb="1">
+      <t>ben ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa kuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li cheng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次挖矿总金额</t>
+    <rPh sb="0" eb="1">
+      <t>ben ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wa kuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin e</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -511,8 +639,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0326CC"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -663,17 +806,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -682,7 +838,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -722,6 +878,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +914,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -758,34 +938,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,7 +976,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1977,33 +2160,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2012,18 +2196,18 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2220,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2049,7 +2233,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2062,7 +2246,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2075,7 +2259,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2088,18 +2272,18 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +2296,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -2125,7 +2309,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2138,7 +2322,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2153,7 +2337,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2166,7 +2350,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2179,18 +2363,18 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2205,7 +2389,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>1001</v>
       </c>
@@ -2220,7 +2404,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>1002</v>
       </c>
@@ -2235,7 +2419,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>1003</v>
       </c>
@@ -2250,7 +2434,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>1004</v>
       </c>
@@ -2265,7 +2449,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>1005</v>
       </c>
@@ -2280,7 +2464,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>2001</v>
       </c>
@@ -2295,7 +2479,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="92.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>2002</v>
       </c>
@@ -2310,7 +2494,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>3001</v>
       </c>
@@ -2325,42 +2509,42 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="17">
         <v>12345678</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2381,21 +2565,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="8" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2408,25 +2593,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2439,16 +2624,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -2461,7 +2646,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -2474,7 +2659,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -2487,16 +2672,16 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2509,7 +2694,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -2522,21 +2707,21 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2561,21 +2746,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="10" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="10" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2588,25 +2774,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2619,16 +2805,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -2641,7 +2827,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2840,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -2667,16 +2853,16 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2689,7 +2875,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -2702,7 +2888,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -2715,14 +2901,14 @@
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2747,266 +2933,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="256" width="16.33203125" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="12" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3019,43 +2961,43 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -3068,7 +3010,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="36.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -3081,7 +3023,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -3094,7 +3036,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
@@ -3107,7 +3049,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>75</v>
       </c>
@@ -3120,7 +3062,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
@@ -3133,16 +3075,16 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -3155,7 +3097,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -3168,7 +3110,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>79</v>
       </c>
@@ -3181,14 +3123,14 @@
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3212,23 +3154,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="12" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3241,61 +3184,61 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -3308,7 +3251,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -3321,27 +3264,27 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3364,4 +3307,485 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="16.33203125" style="11" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="76.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="76.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/database/接口设计.xlsx
+++ b/src/main/resources/database/接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
   <si>
     <t>表格 1</t>
   </si>
@@ -595,6 +595,43 @@
       <t>jin e</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HTTP-POST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://IP:port/mining/mining/queryUserMiningList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -896,6 +933,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,17 +1005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,15 +2214,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -2197,15 +2234,15 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2273,15 +2310,15 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -2364,15 +2401,15 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -2510,15 +2547,15 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
@@ -2594,20 +2631,20 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
@@ -2625,11 +2662,11 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
@@ -2673,13 +2710,13 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2775,20 +2812,20 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
@@ -2806,11 +2843,11 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
@@ -2854,13 +2891,13 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2962,38 +2999,38 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
@@ -3076,13 +3113,13 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -3185,58 +3222,58 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -3340,20 +3377,20 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
@@ -3371,11 +3408,11 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
@@ -3484,13 +3521,13 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
@@ -3562,8 +3599,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3586,20 +3623,20 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
     </row>
@@ -3617,11 +3654,11 @@
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
     </row>
@@ -3652,42 +3689,42 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -3697,32 +3734,32 @@
         <v>102</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -3735,7 +3772,7 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -3748,7 +3785,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3761,7 +3798,7 @@
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="17" t="s">

--- a/src/main/resources/database/接口设计.xlsx
+++ b/src/main/resources/database/接口设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lanjing/Documents/workspace/mining/src/main/resources/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelljProj\mining\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="924" yWindow="456" windowWidth="27876" windowHeight="17544" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="挖矿请求接口" sheetId="4" r:id="rId6"/>
     <sheet name="获取用户挖矿记录接口" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="115">
   <si>
     <t>表格 1</t>
   </si>
@@ -270,12 +270,6 @@
   </si>
   <si>
     <t>上次请求时里程数，单位为米，必填</t>
-  </si>
-  <si>
-    <t>increateCount</t>
-  </si>
-  <si>
-    <t>本次请求实际挖矿金币数量，保留5位小数，结果状态码为非正常时，改字段值为空。</t>
   </si>
   <si>
     <t>resultCode</t>
@@ -405,10 +399,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>websocket请求（ws://IP:port/miningws?username=XXX&amp;token=XXX）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>该接口不需要加密</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -455,10 +445,6 @@
   </si>
   <si>
     <t>排序后的列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该接口不需要加密,直接发送正式的报文即可</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -633,12 +619,28 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>http请求（http://IP:port/mining/mining/compute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文加密后内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -875,7 +877,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -942,6 +944,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,16 +998,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2197,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G28"/>
@@ -2207,24 +2218,24 @@
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="31.05" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.55" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2233,18 +2244,18 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.2" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2268,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="22.2" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2270,7 +2281,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="22.2" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2283,7 +2294,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="22.2" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2296,7 +2307,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="22.2" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2309,18 +2320,18 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.2" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2344,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="22.2" customHeight="1">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -2346,7 +2357,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="22.2" customHeight="1">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2359,7 +2370,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="22.2" customHeight="1">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2374,7 +2385,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="22.2" customHeight="1">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2387,7 +2398,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="36.299999999999997" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2400,18 +2411,18 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.2" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2437,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="36.299999999999997" customHeight="1">
       <c r="A18" s="5">
         <v>1001</v>
       </c>
@@ -2441,7 +2452,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="64.2" customHeight="1">
       <c r="A19" s="5">
         <v>1002</v>
       </c>
@@ -2456,7 +2467,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="36.299999999999997" customHeight="1">
       <c r="A20" s="5">
         <v>1003</v>
       </c>
@@ -2471,7 +2482,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="22.2" customHeight="1">
       <c r="A21" s="5">
         <v>1004</v>
       </c>
@@ -2486,7 +2497,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="36.299999999999997" customHeight="1">
       <c r="A22" s="5">
         <v>1005</v>
       </c>
@@ -2501,7 +2512,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="78.3" customHeight="1">
       <c r="A23" s="5">
         <v>2001</v>
       </c>
@@ -2516,7 +2527,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="92.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="92.55" customHeight="1">
       <c r="A24" s="5">
         <v>2002</v>
       </c>
@@ -2531,7 +2542,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="64.2" customHeight="1">
       <c r="A25" s="5">
         <v>3001</v>
       </c>
@@ -2546,23 +2557,23 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -2570,9 +2581,9 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B28" s="17">
         <v>12345678</v>
@@ -2602,7 +2613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -2611,13 +2622,13 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="8" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2630,25 +2641,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2661,16 +2672,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -2683,7 +2694,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="22.2" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -2696,9 +2707,9 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="22.2" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
@@ -2709,16 +2720,16 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="78.3" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2731,7 +2742,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="22.2" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -2744,21 +2755,21 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20.55" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20.55" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20.55" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2783,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -2792,13 +2803,13 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="10" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2811,25 +2822,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2842,16 +2853,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -2864,7 +2875,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="22.2" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -2877,7 +2888,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="22.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -2890,16 +2901,16 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="78.3" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2912,7 +2923,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="22.2" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -2925,7 +2936,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="50.55" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -2938,14 +2949,14 @@
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20.55" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20.55" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2970,22 +2981,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -2998,43 +3009,47 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3062,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="36.299999999999997" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -3060,7 +3075,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="50.55" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -3073,7 +3088,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="50.55" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
@@ -3086,7 +3101,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="50.55" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>75</v>
       </c>
@@ -3099,7 +3114,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="50.55" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
@@ -3112,16 +3127,16 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="64.2" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -3134,7 +3149,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="22.2" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -3147,27 +3162,21 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>80</v>
-      </c>
+    <row r="15" spans="1:5" ht="78.3" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="20.55" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20.55" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3175,12 +3184,11 @@
       <c r="E17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -3193,22 +3201,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3221,61 +3229,61 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="64.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -3288,7 +3296,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="22.2" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -3301,27 +3309,27 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="78.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="78.3" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.55" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.55" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3329,12 +3337,11 @@
       <c r="E12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3348,22 +3355,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="11" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3376,25 +3383,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -3407,16 +3414,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -3429,7 +3436,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="36.299999999999997" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3449,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="50.55" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="50.55" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
@@ -3468,7 +3475,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="76.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="76.2" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -3481,7 +3488,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="76.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="76.2" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -3494,7 +3501,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="50.55" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
@@ -3507,12 +3514,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="50.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="50.55" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>71</v>
@@ -3520,18 +3527,18 @@
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="64.2" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>41</v>
@@ -3542,9 +3549,9 @@
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="22.2" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>41</v>
@@ -3555,21 +3562,21 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20.55" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20.55" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20.55" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3594,22 +3601,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -3622,25 +3629,25 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="22.2" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -3653,16 +3660,16 @@
       <c r="D4" s="14"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.2" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -3675,7 +3682,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="36.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="36.299999999999997" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -3688,18 +3695,18 @@
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="64.2" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>41</v>
@@ -3710,9 +3717,9 @@
       <c r="D9" s="17"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="22.2" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>41</v>
@@ -3723,42 +3730,42 @@
       <c r="D10" s="17"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.55" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="20.55" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="17"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="20.55" customHeight="1">
       <c r="A13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>66</v>
       </c>
@@ -3766,46 +3773,46 @@
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
